--- a/data/trans_orig/P14A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1AF7CA6-24A6-4CC4-AC97-DD5FB9FB8209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3A943C-6714-4ABF-8FDB-6B76FF8C6775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85526D2F-D473-4E3D-93AA-E59CCEEC2BDD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18A0CEB5-21F5-42FF-95E8-156ED70396F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>65,79%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
   </si>
   <si>
     <t>46,58%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
   </si>
   <si>
     <t>52,65%</t>
   </si>
   <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>34,21%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
   </si>
   <si>
     <t>53,42%</t>
   </si>
   <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
   </si>
   <si>
     <t>47,35%</t>
   </si>
   <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>60,47%</t>
   </si>
   <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
   </si>
   <si>
     <t>55,06%</t>
   </si>
   <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>57,23%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
   </si>
   <si>
     <t>39,53%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
   </si>
   <si>
     <t>44,94%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
   </si>
   <si>
     <t>42,77%</t>
   </si>
   <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -222,55 +222,55 @@
     <t>65,0%</t>
   </si>
   <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
   </si>
   <si>
     <t>35,0%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -282,10 +282,10 @@
     <t>71,73%</t>
   </si>
   <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>70,86%</t>
@@ -300,19 +300,19 @@
     <t>71,15%</t>
   </si>
   <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
   </si>
   <si>
     <t>29,14%</t>
@@ -327,16 +327,16 @@
     <t>28,85%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
   </si>
   <si>
     <t>63,97%</t>
   </si>
   <si>
-    <t>39,37%</t>
+    <t>33,05%</t>
   </si>
   <si>
     <t>86,14%</t>
@@ -345,19 +345,19 @@
     <t>78,86%</t>
   </si>
   <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>73,79%</t>
   </si>
   <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
   </si>
   <si>
     <t>36,03%</t>
@@ -366,25 +366,25 @@
     <t>13,86%</t>
   </si>
   <si>
-    <t>60,63%</t>
+    <t>66,95%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
   </si>
   <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
   </si>
   <si>
     <t>63,82%</t>
@@ -393,19 +393,19 @@
     <t>58,84%</t>
   </si>
   <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>59,49%</t>
   </si>
   <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
   <si>
     <t>36,18%</t>
@@ -414,73 +414,73 @@
     <t>41,16%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
   </si>
   <si>
     <t>40,51%</t>
   </si>
   <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
   </si>
   <si>
     <t>67,56%</t>
   </si>
   <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>32,44%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1389AEA7-A742-4D72-A4FF-A0FDE791C909}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E780CF0-216B-4AA7-A8D7-1AB8687A66A7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1643,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F1717B-3197-4C43-B352-69D306D1AA01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276CF0F5-4A2D-4A49-9B3C-758306AF429C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A01-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3A943C-6714-4ABF-8FDB-6B76FF8C6775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE7AD7C-0EDE-4854-8233-355C3FA7A833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18A0CEB5-21F5-42FF-95E8-156ED70396F4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E64264BE-2795-430E-9122-D9ADD6AAAA2E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,28 +75,28 @@
     <t>65,79%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>46,58%</t>
   </si>
   <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
   </si>
   <si>
     <t>52,65%</t>
   </si>
   <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>34,21%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
   </si>
   <si>
     <t>53,42%</t>
   </si>
   <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
   </si>
   <si>
     <t>47,35%</t>
   </si>
   <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>60,47%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>55,06%</t>
   </si>
   <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
   </si>
   <si>
     <t>57,23%</t>
   </si>
   <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
   </si>
   <si>
     <t>39,53%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
   </si>
   <si>
     <t>44,94%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
   </si>
   <si>
     <t>42,77%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -222,169 +222,169 @@
     <t>65,0%</t>
   </si>
   <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
   </si>
   <si>
     <t>35,0%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por cáncer en 2015 (Tasa respuesta: 1,43%)</t>
+    <t>Población que recibe medicación o terapia por cáncer en 2016 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>70,86%</t>
   </si>
   <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>71,15%</t>
   </si>
   <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
   </si>
   <si>
     <t>29,14%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
   <si>
     <t>28,85%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
   </si>
   <si>
     <t>63,97%</t>
   </si>
   <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>78,86%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>73,79%</t>
   </si>
   <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
   <si>
     <t>36,03%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
   </si>
   <si>
     <t>63,82%</t>
@@ -393,19 +393,19 @@
     <t>58,84%</t>
   </si>
   <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>59,49%</t>
   </si>
   <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>36,18%</t>
@@ -414,73 +414,73 @@
     <t>41,16%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
   </si>
   <si>
     <t>40,51%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
   </si>
   <si>
     <t>67,56%</t>
   </si>
   <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>32,44%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E780CF0-216B-4AA7-A8D7-1AB8687A66A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE735DFC-B97E-480E-9FE8-2233CB3C4C8A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1643,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276CF0F5-4A2D-4A49-9B3C-758306AF429C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB19A384-50A7-4CEE-B470-F4B7ECB27BD4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2310,7 +2310,7 @@
         <v>28</v>
       </c>
       <c r="N14" s="7">
-        <v>30450</v>
+        <v>30451</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>145</v>
@@ -2361,7 +2361,7 @@
         <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>100884</v>
+        <v>100885</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
